--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSK\02v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSK\02v4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4192F8-9382-4419-8252-1685B5DAB604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48485B94-539E-4B9C-8FBE-C8D5C0EDFDFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{8281E112-6585-49C3-A528-713D2E2133AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{530F0588-FBF0-4D86-BBFF-EAF008CAFE57}"/>
   </bookViews>
   <sheets>
     <sheet name="BSK_02V4_ENG BILL OF MATERIALS" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="169">
   <si>
     <t>Capture CIS Standard Bill Of Materials - Compressed Report</t>
   </si>
   <si>
-    <t>Report Created on Friday Sep 28 15:24:42 2018</t>
+    <t>Report Created on Tuesday Oct 02 09:22:58 2018</t>
   </si>
   <si>
     <t>Part Number</t>
@@ -144,27 +144,25 @@
     <t>0805</t>
   </si>
   <si>
-    <t>0805-X7R-50V-0.1uF-10%</t>
-  </si>
-  <si>
-    <t>[+]Чип-конденсатор 0805 X7R 50V 0.1uF 10%</t>
+    <t>1206-X7R-100V-0.1uF-10%</t>
+  </si>
+  <si>
+    <t>Чип-конденсатор 1206 X7R 100V 0.1uF 10%</t>
+  </si>
+  <si>
+    <t>C86</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1206-X7R-25V-10uF-10%</t>
+  </si>
+  <si>
+    <t>Чип-конденсатор 1206 X7R 25V 10uF 10%</t>
   </si>
   <si>
     <t>C87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25V-10uF-10%-D_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чип тант. 25V 10uF 10% D_x000D_
-</t>
-  </si>
-  <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>PLS-2</t>
@@ -456,7 +454,7 @@
     <t>Диод SM6T6V8A SMB STM</t>
   </si>
   <si>
-    <t>VD5</t>
+    <t>VD5,VD8</t>
   </si>
   <si>
     <t>Диоды</t>
@@ -532,6 +530,9 @@
   </si>
   <si>
     <t>Кварцевые резонаторы</t>
+  </si>
+  <si>
+    <t>Допускается замена на номинал 25-100 Ом</t>
   </si>
 </sst>
 </file>
@@ -888,17 +889,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579AE38-76D8-4502-A2D5-9C0DA2CFC7D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA37ACBF-7086-4BD9-8360-A6F6F6E4871D}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,21 +1174,21 @@
         <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1197,16 +1197,16 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>13</v>
@@ -1583,7 +1583,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>13</v>
@@ -1916,7 +1916,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
